--- a/natmiOut/OldD4/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H2">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I2">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J2">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N2">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O2">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P2">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q2">
-        <v>0.1731508199717428</v>
+        <v>0.5046270129900001</v>
       </c>
       <c r="R2">
-        <v>0.1731508199717428</v>
+        <v>4.54164311691</v>
       </c>
       <c r="S2">
-        <v>2.855125904258335E-06</v>
+        <v>6.542158369817673E-06</v>
       </c>
       <c r="T2">
-        <v>2.855125904258335E-06</v>
+        <v>6.549937316452754E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H3">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I3">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J3">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N3">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O3">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P3">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q3">
-        <v>20.91943753327781</v>
+        <v>37.508141989433</v>
       </c>
       <c r="R3">
-        <v>20.91943753327781</v>
+        <v>337.573277904897</v>
       </c>
       <c r="S3">
-        <v>0.0003449456838467339</v>
+        <v>0.0004862684690590305</v>
       </c>
       <c r="T3">
-        <v>0.0003449456838467339</v>
+        <v>0.0004868466660786233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.30954840389418</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H4">
-        <v>0.30954840389418</v>
+        <v>1.571019</v>
       </c>
       <c r="I4">
-        <v>0.0009304846427813607</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J4">
-        <v>0.0009304846427813607</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N4">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O4">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P4">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q4">
-        <v>35.33720993634946</v>
+        <v>70.70740809916833</v>
       </c>
       <c r="R4">
-        <v>35.33720993634946</v>
+        <v>636.366672892515</v>
       </c>
       <c r="S4">
-        <v>0.0005826838330303684</v>
+        <v>0.0009166751874086746</v>
       </c>
       <c r="T4">
-        <v>0.0005826838330303684</v>
+        <v>0.0009177651590910254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>275.959470594142</v>
+        <v>0.5236730000000001</v>
       </c>
       <c r="H5">
-        <v>275.959470594142</v>
+        <v>1.571019</v>
       </c>
       <c r="I5">
-        <v>0.8295182471872904</v>
+        <v>0.001411687926676084</v>
       </c>
       <c r="J5">
-        <v>0.8295182471872904</v>
+        <v>0.001412631582657676</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.559365894940731</v>
+        <v>0.324361</v>
       </c>
       <c r="N5">
-        <v>0.559365894940731</v>
+        <v>0.648722</v>
       </c>
       <c r="O5">
-        <v>0.0030684288305113</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P5">
-        <v>0.0030684288305113</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q5">
-        <v>154.3623162362626</v>
+        <v>0.169859097953</v>
       </c>
       <c r="R5">
-        <v>154.3623162362626</v>
+        <v>1.019154587718</v>
       </c>
       <c r="S5">
-        <v>0.002545317705104681</v>
+        <v>2.20211183856089E-06</v>
       </c>
       <c r="T5">
-        <v>0.002545317705104681</v>
+        <v>1.469820171574796E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H6">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I6">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J6">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.5805052460525</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N6">
-        <v>67.5805052460525</v>
+        <v>2.89089</v>
       </c>
       <c r="O6">
-        <v>0.3707161493989182</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P6">
-        <v>0.3707161493989182</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q6">
-        <v>18649.48045018528</v>
+        <v>280.3177458328501</v>
       </c>
       <c r="R6">
-        <v>18649.48045018528</v>
+        <v>2522.85971249565</v>
       </c>
       <c r="S6">
-        <v>0.3075158104534123</v>
+        <v>0.003634135787227753</v>
       </c>
       <c r="T6">
-        <v>0.3075158104534123</v>
+        <v>0.003638456952622326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>275.959470594142</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H7">
-        <v>275.959470594142</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.8295182471872904</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J7">
-        <v>0.8295182471872904</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>114.157299768955</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N7">
-        <v>114.157299768955</v>
+        <v>214.875363</v>
       </c>
       <c r="O7">
-        <v>0.6262154217705705</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P7">
-        <v>0.6262154217705705</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q7">
-        <v>31502.78800869759</v>
+        <v>20835.5826029961</v>
       </c>
       <c r="R7">
-        <v>31502.78800869759</v>
+        <v>187520.2434269649</v>
       </c>
       <c r="S7">
-        <v>0.5194571190287735</v>
+        <v>0.270119667808825</v>
       </c>
       <c r="T7">
-        <v>0.5194571190287735</v>
+        <v>0.2704408533201181</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H8">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J8">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559365894940731</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N8">
-        <v>0.559365894940731</v>
+        <v>405.066185</v>
       </c>
       <c r="O8">
-        <v>0.0030684288305113</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P8">
-        <v>0.0030684288305113</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q8">
-        <v>10.54414615854442</v>
+        <v>39277.60651298119</v>
       </c>
       <c r="R8">
-        <v>10.54414615854442</v>
+        <v>353498.4586168308</v>
       </c>
       <c r="S8">
-        <v>0.0001738649856839206</v>
+        <v>0.5092084164753128</v>
       </c>
       <c r="T8">
-        <v>0.0001738649856839206</v>
+        <v>0.5098138902156262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8501770556849</v>
+        <v>290.8976950000001</v>
       </c>
       <c r="H9">
-        <v>18.8501770556849</v>
+        <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.05666254467272393</v>
+        <v>0.7841854820267643</v>
       </c>
       <c r="J9">
-        <v>0.05666254467272393</v>
+        <v>0.78470967813754</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>67.5805052460525</v>
+        <v>0.324361</v>
       </c>
       <c r="N9">
-        <v>67.5805052460525</v>
+        <v>0.648722</v>
       </c>
       <c r="O9">
-        <v>0.3707161493989182</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P9">
-        <v>0.3707161493989182</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q9">
-        <v>1273.904489400732</v>
+        <v>94.35586724789502</v>
       </c>
       <c r="R9">
-        <v>1273.904489400732</v>
+        <v>566.1352034873701</v>
       </c>
       <c r="S9">
-        <v>0.0210057203762164</v>
+        <v>0.001223261955398837</v>
       </c>
       <c r="T9">
-        <v>0.0210057203762164</v>
+        <v>0.000816477649173459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.8501770556849</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H10">
-        <v>18.8501770556849</v>
+        <v>116.052725</v>
       </c>
       <c r="I10">
-        <v>0.05666254467272393</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J10">
-        <v>0.05666254467272393</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>114.157299768955</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N10">
-        <v>114.157299768955</v>
+        <v>2.89089</v>
       </c>
       <c r="O10">
-        <v>0.6262154217705705</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P10">
-        <v>0.6262154217705705</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q10">
-        <v>2151.885312843699</v>
+        <v>37.27729579725001</v>
       </c>
       <c r="R10">
-        <v>2151.885312843699</v>
+        <v>335.49566217525</v>
       </c>
       <c r="S10">
-        <v>0.03548295931082361</v>
+        <v>0.0004832756995293492</v>
       </c>
       <c r="T10">
-        <v>0.03548295931082361</v>
+        <v>0.0004838503379994317</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H11">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I11">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J11">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.559365894940731</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N11">
-        <v>0.559365894940731</v>
+        <v>214.875363</v>
       </c>
       <c r="O11">
-        <v>0.0030684288305113</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P11">
-        <v>0.0030684288305113</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q11">
-        <v>20.69891590175003</v>
+        <v>2770.763490168241</v>
       </c>
       <c r="R11">
-        <v>20.69891590175003</v>
+        <v>24936.87141151417</v>
       </c>
       <c r="S11">
-        <v>0.0003413094491310853</v>
+        <v>0.03592113202697018</v>
       </c>
       <c r="T11">
-        <v>0.0003413094491310853</v>
+        <v>0.03596384401180971</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H12">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I12">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J12">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.5805052460525</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N12">
-        <v>67.5805052460525</v>
+        <v>405.066185</v>
       </c>
       <c r="O12">
-        <v>0.3707161493989182</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P12">
-        <v>0.3707161493989182</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q12">
-        <v>2500.765969712964</v>
+        <v>5223.226063844902</v>
       </c>
       <c r="R12">
-        <v>2500.765969712964</v>
+        <v>47009.03457460412</v>
       </c>
       <c r="S12">
-        <v>0.04123573715550641</v>
+        <v>0.06771570136240386</v>
       </c>
       <c r="T12">
-        <v>0.04123573715550641</v>
+        <v>0.06779621864698772</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.0042508650679</v>
+        <v>38.68424166666667</v>
       </c>
       <c r="H13">
-        <v>37.0042508650679</v>
+        <v>116.052725</v>
       </c>
       <c r="I13">
-        <v>0.1112326431485824</v>
+        <v>0.1042827812651277</v>
       </c>
       <c r="J13">
-        <v>0.1112326431485824</v>
+        <v>0.1043524900644015</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>114.157299768955</v>
+        <v>0.324361</v>
       </c>
       <c r="N13">
-        <v>114.157299768955</v>
+        <v>0.648722</v>
       </c>
       <c r="O13">
-        <v>0.6262154217705705</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P13">
-        <v>0.6262154217705705</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q13">
-        <v>4224.305358729169</v>
+        <v>12.54765931124167</v>
       </c>
       <c r="R13">
-        <v>4224.305358729169</v>
+        <v>75.28595586745</v>
       </c>
       <c r="S13">
-        <v>0.06965559654394486</v>
+        <v>0.0001626721762243177</v>
       </c>
       <c r="T13">
-        <v>0.06965559654394486</v>
+        <v>0.000108577067604671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H14">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I14">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J14">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N14">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O14">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P14">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q14">
-        <v>0.3081745330539091</v>
+        <v>38.64753557874</v>
       </c>
       <c r="R14">
-        <v>0.3081745330539091</v>
+        <v>347.82782020866</v>
       </c>
       <c r="S14">
-        <v>5.081564687354775E-06</v>
+        <v>0.0005010399599125118</v>
       </c>
       <c r="T14">
-        <v>5.081564687354775E-06</v>
+        <v>0.0005016357209580077</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H15">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I15">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J15">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N15">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O15">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P15">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q15">
-        <v>37.23249993630058</v>
+        <v>2872.611284599958</v>
       </c>
       <c r="R15">
-        <v>37.23249993630058</v>
+        <v>25853.50156139962</v>
       </c>
       <c r="S15">
-        <v>0.0006139357299363449</v>
+        <v>0.03724152190630096</v>
       </c>
       <c r="T15">
-        <v>0.0006139357299363449</v>
+        <v>0.03728580389935923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.550935507225664</v>
+        <v>40.106198</v>
       </c>
       <c r="H16">
-        <v>0.550935507225664</v>
+        <v>120.318594</v>
       </c>
       <c r="I16">
-        <v>0.001656080348621943</v>
+        <v>0.1081160103757125</v>
       </c>
       <c r="J16">
-        <v>0.001656080348621943</v>
+        <v>0.1081882815327926</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N16">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O16">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P16">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q16">
-        <v>62.8933098517214</v>
+        <v>5415.221539571542</v>
       </c>
       <c r="R16">
-        <v>62.8933098517214</v>
+        <v>48736.99385614388</v>
       </c>
       <c r="S16">
-        <v>0.001037063053998244</v>
+        <v>0.07020479682530778</v>
       </c>
       <c r="T16">
-        <v>0.001037063053998244</v>
+        <v>0.07028827376627429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40.106198</v>
+      </c>
+      <c r="H17">
+        <v>120.318594</v>
+      </c>
+      <c r="I17">
+        <v>0.1081160103757125</v>
+      </c>
+      <c r="J17">
+        <v>0.1081882815327926</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.324361</v>
+      </c>
+      <c r="N17">
+        <v>0.648722</v>
+      </c>
+      <c r="O17">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P17">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q17">
+        <v>13.008886489478</v>
+      </c>
+      <c r="R17">
+        <v>78.053318936868</v>
+      </c>
+      <c r="S17">
+        <v>0.0001686516841912168</v>
+      </c>
+      <c r="T17">
+        <v>0.0001125681462011078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7434085</v>
+      </c>
+      <c r="H18">
+        <v>1.486817</v>
+      </c>
+      <c r="I18">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J18">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.89089</v>
+      </c>
+      <c r="O18">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P18">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q18">
+        <v>0.7163707328550001</v>
+      </c>
+      <c r="R18">
+        <v>4.29822439713</v>
+      </c>
+      <c r="S18">
+        <v>9.287276870238873E-06</v>
+      </c>
+      <c r="T18">
+        <v>6.198879931456165E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7434085</v>
+      </c>
+      <c r="H19">
+        <v>1.486817</v>
+      </c>
+      <c r="I19">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J19">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N19">
+        <v>214.875363</v>
+      </c>
+      <c r="O19">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P19">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q19">
+        <v>53.2467237649285</v>
+      </c>
+      <c r="R19">
+        <v>319.480342589571</v>
+      </c>
+      <c r="S19">
+        <v>0.0006903088629363557</v>
+      </c>
+      <c r="T19">
+        <v>0.0004607531159833333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7434085</v>
+      </c>
+      <c r="H20">
+        <v>1.486817</v>
+      </c>
+      <c r="I20">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J20">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N20">
+        <v>405.066185</v>
+      </c>
+      <c r="O20">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P20">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q20">
+        <v>100.3765483305242</v>
+      </c>
+      <c r="R20">
+        <v>602.259289983145</v>
+      </c>
+      <c r="S20">
+        <v>0.00130131613823646</v>
+      </c>
+      <c r="T20">
+        <v>0.0008685756445620587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7434085</v>
+      </c>
+      <c r="H21">
+        <v>1.486817</v>
+      </c>
+      <c r="I21">
+        <v>0.002004038405719556</v>
+      </c>
+      <c r="J21">
+        <v>0.001336918682608127</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.324361</v>
+      </c>
+      <c r="N21">
+        <v>0.648722</v>
+      </c>
+      <c r="O21">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P21">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q21">
+        <v>0.2411327244685</v>
+      </c>
+      <c r="R21">
+        <v>0.964530897874</v>
+      </c>
+      <c r="S21">
+        <v>3.126127676501926E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.391042131279331E-06</v>
       </c>
     </row>
   </sheetData>
